--- a/tradept/Excel/Localization/Main/english/Y野怪投放适配表_MonsterInfos_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/Y野怪投放适配表_MonsterInfos_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E16B0-6E27-43E7-AA26-5C05308FD050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2819A85-86BC-4491-BC75-FDD95E3043C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -49,10 +49,10 @@
     <t>野兽血脉科索尔咕噜3</t>
   </si>
   <si>
-    <t>Lobo de las Tierras Baldías</t>
-  </si>
-  <si>
-    <t>Monstruo</t>
+    <t>Lobo das terras áridas</t>
+  </si>
+  <si>
+    <t>Monstro</t>
   </si>
 </sst>
 </file>
@@ -175,27 +175,27 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -555,10 +555,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="28.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45">
       <c r="A1" s="3" t="s">
